--- a/Projet Power4 - Gestion de projet - Groupe 01.xlsx
+++ b/Projet Power4 - Gestion de projet - Groupe 01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedda\Documents\Ynov\B1\Html css\Tp Power4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedda\OneDrive\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6124D9-1304-42D1-9844-4649E117D928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA001F37-81BC-46AF-8393-625869313FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Membre 2</t>
   </si>
@@ -164,17 +164,26 @@
     <t>Netoyage du code avant push final</t>
   </si>
   <si>
-    <t>Création de ScoreBoard.html</t>
-  </si>
-  <si>
-    <t>Création de ScoreBoard.css</t>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probleme de merge </t>
+  </si>
+  <si>
+    <t>Probleme de branche (j'ai dût tout git rebase) +1 fix</t>
+  </si>
+  <si>
+    <t>Bloqué le temps de faire la page html</t>
+  </si>
+  <si>
+    <t>Création de ScoreBoard .html + .css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +250,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -394,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,6 +472,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +906,7 @@
       <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="17">
@@ -887,20 +915,20 @@
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J6" s="5">
         <v>45950</v>
       </c>
       <c r="K6" s="5">
-        <v>45950</v>
+        <v>45985</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>30</v>
@@ -910,7 +938,7 @@
       <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="17">
@@ -919,16 +947,22 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K7" s="5">
+        <v>45950</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="19"/>
@@ -940,35 +974,47 @@
       <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K8" s="5">
+        <v>45950</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E9" s="17">
-        <f t="shared" ref="E9:E24" si="0">E8+1</f>
+        <f t="shared" ref="E9:E18" si="0">E8+1</f>
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K9" s="5">
+        <v>45950</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E10" s="17">
@@ -978,16 +1024,22 @@
       <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45950</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
@@ -1001,16 +1053,22 @@
       <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K11" s="5">
+        <v>45973</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
@@ -1026,16 +1084,22 @@
       <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45950</v>
+      </c>
+      <c r="K12" s="5">
+        <v>45973</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -1051,18 +1115,24 @@
       <c r="F13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45973</v>
+      </c>
+      <c r="K13" s="5">
+        <v>45973</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
@@ -1078,16 +1148,22 @@
       <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45973</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45973</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
@@ -1103,16 +1179,22 @@
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45973</v>
+      </c>
+      <c r="K15" s="5">
+        <v>45974</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
@@ -1128,18 +1210,24 @@
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45973</v>
+      </c>
+      <c r="K16" s="5">
+        <v>45974</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17" s="17">
@@ -1149,15 +1237,19 @@
       <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45974</v>
+      </c>
+      <c r="K17" s="5">
+        <v>45985</v>
+      </c>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.3">
@@ -1168,136 +1260,114 @@
       <c r="F18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45974</v>
+      </c>
+      <c r="K18" s="5">
+        <v>45985</v>
+      </c>
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E19" s="17">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45974</v>
+      </c>
+      <c r="K19" s="5">
+        <v>45985</v>
+      </c>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E20" s="17">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45974</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45985</v>
+      </c>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E21" s="17">
-        <f t="shared" si="0"/>
+        <f>E20+1</f>
         <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45985</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45985</v>
+      </c>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E22" s="17">
-        <f t="shared" si="0"/>
+        <f>E21+1</f>
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45985</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45986</v>
+      </c>
       <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E23" s="17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
-      <c r="E24" s="17">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E25"/>
@@ -1477,7 +1547,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B2:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="I6:I35">
+  <conditionalFormatting sqref="I6:I22 I25:I35">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>$B$14</formula>
     </cfRule>
@@ -1495,11 +1565,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I35" xr:uid="{DC42BC5E-F03C-4A62-B120-97A37A61E02B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H13 G15:G16 G18:G22 H14:H22" xr:uid="{6FE28DE0-B34B-4118-A6F9-57810B368F1A}">
+      <formula1>$C$6:$C$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:I35 I6:I22" xr:uid="{DC42BC5E-F03C-4A62-B120-97A37A61E02B}">
       <formula1>$B$12:$B$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H13 H14:H24 G15:G16 G18:G20 G22:G24" xr:uid="{6FE28DE0-B34B-4118-A6F9-57810B368F1A}">
-      <formula1>$C$6:$C$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
